--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -313,6 +313,84 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïòðåšéí! Îàí îôçîï òðàòóé\n[CS:N]Àèôñéììà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today they want us to do jobs\nthat are posted on the Job Bulletin Board and\nOutlaw Notice Board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s look good, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня мы должны выполнять\nзадания с Доски Объявлений и Доски\nРазыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сделаем это, [hero]!</t>
+  </si>
+  <si>
+    <t>1596, 1600, 1604</t>
+  </si>
+  <si>
+    <t>1610, 1614, 1618</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ íú äïìçîú âúðïìîÿóû\nèàäàîéÿ ò Äïòëé Ïáùÿâìåîéê é Äïòëé\nÑàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òäåìàåí üóï, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s try to check behind the\nwaterfall thoroughly today!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K]\nTo [CS:P]Waterfall Cave[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wow, I am getting really excited\nabout this!</t>
+  </si>
+  <si>
+    <t>1646, 1650, 1654</t>
+  </si>
+  <si>
+    <t>1660, 1664, 1668</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K] To the\nwaterfall!</t>
+  </si>
+  <si>
+    <t>1692, 1696, 1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай попробуем более\nтщательно исследовать место за водопадом!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]![K]\nВ [CS:P]Пещеру за Водопадом[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, я так взбудоражен!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, я так взбудоражена!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]![K]\nК водопаду!</t>
+  </si>
+  <si>
+    <t>1678, 1682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ðïðñïáôåí áïìåå\nóþàóåìûîï éòòìåäïâàóû íåòóï èà âïäïðàäïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]![K]\nÂ [CS:P]Ðåþåñô èà Âïäïðàäïí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, ÿ óàë âèáôäïñàçåî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, ÿ óàë âèáôäïñàçåîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]![K]\nË âïäïðàäô!</t>
   </si>
 </sst>
 </file>
@@ -460,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -538,6 +616,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1282,19 +1363,129 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="20" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="C34" s="1">
+        <v>1686</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Обычные Фразы" sheetId="1" r:id="rId1"/>
+    <sheet name="Фразы при провалах" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="217">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -391,13 +392,292 @@
   </si>
   <si>
     <t xml:space="preserve"> Éäæí, [hero]![K]\nË âïäïðàäô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s work hard so they pick us\nfor the expedition, [hero]!</t>
+  </si>
+  <si>
+    <t>1628, 1632, 1636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай постараемся, чтобы\nнас взяли в экспедицию, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ðïòóàñàåíòÿ, œóïáú\nîàò âèÿìé â üëòðåäéøéý, [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/c00a0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk! We didn\'t do well on that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm... This is challenging.[K]\nLet\'s go back for now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! Well, that went badly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s harder than I thought...[K]\nLet\'s try this another time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Мы не справились.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм... Это непросто.[K]\nЛучше вернуться назад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Похоже, у нас не\nполучилось.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это труднее, чем я думал...[K]\nПопробуем в другой раз.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это труднее, чем я думала...[K]\nПопробуем в другой раз.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Íú îå òðñàâéìéòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí... Üóï îåðñïòóï.[K]\nÌôœšå âåñîôóûòÿ îàèàä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Ðïöïçå, ô îàò îå\nðïìôœéìïòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óñôäîåå, œåí ÿ äôíàì...[K]\nÐïðñïáôåí â äñôãïê ñàè.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óñôäîåå, œåí ÿ äôíàìà...[K]\nÐïðñïáôåí â äñôãïê ñàè.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Those guys from Team [CS:X]Skull[CR] are\nsure sketchy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Those guys from Team [CS:X]Skull[CR] are\nbad news.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Those guys from Team [CS:X]Skull[CR] are\npretty creepy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know what they\'re\nup to…</t>
+  </si>
+  <si>
+    <t>1534, 1538, 1542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we\'d better be careful.</t>
+  </si>
+  <si>
+    <t>1548, 1552, 1556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They want us to do jobs that are\nposted on the Job Bulletin Board and the\nOutlaw Notice Board.</t>
+  </si>
+  <si>
+    <t>1563, 1567, 1571</t>
+  </si>
+  <si>
+    <t>1577, 1581, 1585</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти ребята из Команды [CS:X]Череп[CR]\nдовольно странные.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Плохо, что сюда пришли эти\nребята из Команды [CS:X]Череп[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эти ребята из Команды [CS:X]Череп[CR]\nочень жуткие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю, что они\nзадумали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но нам стоит быть\nнастороже.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня нам нужно выполнить\nзадания с Доски Объявлений и Доски\nРазыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Займемся ими, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé ñåáÿóà éè Ëïíàîäú [CS:X]Œåñåð[CR]\näïâïìûîï òóñàîîúå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðìïöï, œóï òýäà ðñéšìé üóé\nñåáÿóà éè Ëïíàîäú [CS:X]Œåñåð[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóé ñåáÿóà éè Ëïíàîäú [CS:X]Œåñåð[CR]\nïœåîû çôóëéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý, œóï ïîé\nèàäôíàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàí òóïéó áúóû\nîàòóïñïçå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ îàí îôçîï âúðïìîéóû\nèàäàîéÿ ò Äïòëé Ïáùÿâìåîéê é Äïòëé\nÑàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàêíåíòÿ éíé, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today we should do jobs on the\nJob Bulletin Board and Outlaw Notice Board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep working hard so we\'ll\nget picked for the expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep working hard. We can\nstill be picked for the expedition!</t>
+  </si>
+  <si>
+    <t>1396, 1400, 1404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep working so we\'ll get\npicked for the expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get some Perfect Apples\nfor sure today, [hero]!</t>
+  </si>
+  <si>
+    <t>1428, 1432, 1436</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Perfect Apples are supposed\nto be in the deepest part of [CS:P]Apple Woods[CR].</t>
+  </si>
+  <si>
+    <t>1442, 1446, 1450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to [CS:P]Apple Woods[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t>1456, 1460, 1464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our objective is to bring back\nsome Perfect Apples.</t>
+  </si>
+  <si>
+    <t>1474, 1478, 1482</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Perfect Apples are supposed\nto be deep in [CS:P]Apple Woods[CR].</t>
+  </si>
+  <si>
+    <t>1488, 1492, 1496</t>
+  </si>
+  <si>
+    <t>1502, 1506, 1510</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поработаем как следует,\nчтобы нас взяли в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поработаем как следует.\nНас всё ещё могут взять в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы обязаны добыть Идеальные\nЯблоки, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идеальные Яблоки можно\nнайти в самых дебрях [CS:P]Яблоневого Леса[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся в [CS:P]Яблоневый Лес[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наша задача - принести\nИдеальных Яблок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идеальные Яблоки должны\nнаходиться в дебрях [CS:P]Яблоневого Леса[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñàáïóàåí ëàë òìåäôåó,\nœóïáú îàò âèÿìé â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñàáïóàåí ëàë òìåäôåó.\nÎàò âòæ åþæ íïãôó âèÿóû â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïáÿèàîú äïáúóû Éäåàìûîúå\nŸáìïëé, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäåàìûîúå Ÿáìïëé íïçîï\nîàêóé â òàíúö äåáñÿö [CS:P]Ÿáìïîåâïãï Ìåòà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ â [CS:P]Ÿáìïîåâúê Ìåò[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšà èàäàœà - ðñéîåòóé\nÉäåàìûîúö Ÿáìïë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäåàìûîúå Ÿáìïëé äïìçîú\nîàöïäéóûòÿ â äåáñÿö [CS:P]Ÿáìïîåâïãï Ìåòà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We did it, [hero]![K]\nWe\'re going on the expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'d better get equipped for an\nextended expedition!</t>
+  </si>
+  <si>
+    <t>1320, 1324, 1328</t>
+  </si>
+  <si>
+    <t>1334, 1338, 1342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When we\'re all ready for\nthe expedition…</t>
+  </si>
+  <si>
+    <t>1349, 1353, 1357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to report to [CS:N]Chatot[CR].</t>
+  </si>
+  <si>
+    <t>1363, 1367, 1371</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s work hard, [hero]!</t>
+  </si>
+  <si>
+    <t>1378, 1382, 1386</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ура, [hero]![K]\nМы отправляемся в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно тщательно\nподготовиться к долгому походу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы будем готовы идти\nв экспедицию...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нужно сообщить об этом\n[CS:N]Чатоту[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Потрудимся как следует,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñà, [hero]![K]\nÍú ïóðñàâìÿåíòÿ â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï óþàóåìûîï\nðïäãïóïâéóûòÿ ë äïìãïíô ðïöïäô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú áôäåí ãïóïâú éäóé\nâ üëòðåäéøéý...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îôçîï òïïáþéóû ïá üóïí\n[CS:N]Œàóïóô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïóñôäéíòÿ ëàë òìåäôåó,\n[hero]!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +706,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -538,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -619,6 +907,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -901,10 +1198,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1473,23 +1773,488 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="1" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="20" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="C37" s="1">
+        <v>1520</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="C38" s="1">
+        <v>1524</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="C39" s="1">
+        <v>1528</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="C45" s="1">
+        <v>1410</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="C46" s="1">
+        <v>1414</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="C47" s="1">
+        <v>1418</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Обычные Фразы" sheetId="1" r:id="rId1"/>
-    <sheet name="Фразы при провалах" sheetId="2" r:id="rId2"/>
+    <sheet name="Обычные Фразы 2 Лист" sheetId="3" r:id="rId2"/>
+    <sheet name="Фразы при провалах" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="327">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Глава и мини описание когда это происходит</t>
   </si>
   <si>
-    <t>2 глава: Сразу после первого построения</t>
-  </si>
-  <si>
     <t>SCRIPT/S00P01A/partner.ssb</t>
   </si>
   <si>
@@ -55,9 +53,6 @@
     <t xml:space="preserve"> Œóï...[K]\nŒóï íú äïìçîú äåìàóû?</t>
   </si>
   <si>
-    <t>После пробуждения Лаудредом</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ugh...[K]\nMorning, [hero]…</t>
   </si>
   <si>
@@ -133,9 +128,6 @@
     <t xml:space="preserve"> Ôôôôö...[K]\nÔ íåîÿ âòæ åþæ èâåîéó â ôšàö...</t>
   </si>
   <si>
-    <t>Начало 3 главы</t>
-  </si>
-  <si>
     <t xml:space="preserve"> So, what do we do today?</t>
   </si>
   <si>
@@ -163,9 +155,6 @@
     <t xml:space="preserve"> Œåí íú òåãïäîÿ áôäåí\nèàîéíàóûòÿ?</t>
   </si>
   <si>
-    <t>К Лавке Кеклеонов</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Let\'s hurry over to [CS:K]Kecleon[CR]\nMarket, [hero].</t>
   </si>
   <si>
@@ -178,9 +167,6 @@
     <t xml:space="preserve"> Ðïòðåšéí ë Ìàâëå [CS:K]Ëåëìåïîïâ[CR],\n[hero].</t>
   </si>
   <si>
-    <t>После Лавки Кеклеонов</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [hero].[K]\nWhere to?</t>
   </si>
   <si>
@@ -671,6 +657,351 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïóñôäéíòÿ ëàë òìåäôåó,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get through so we\ncan meet up with the others at base camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get this done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s not far to base camp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep at it, [hero]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/S00P01A/partner2.ssb</t>
+  </si>
+  <si>
+    <t>139, 143, 147</t>
+  </si>
+  <si>
+    <t>106, 110, 114</t>
+  </si>
+  <si>
+    <t>120, 124, 128</t>
+  </si>
+  <si>
+    <t>153, 157, 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll reach base camp when we\ncross this mountain.</t>
+  </si>
+  <si>
+    <t>171, 175, 179</t>
+  </si>
+  <si>
+    <t>185, 189, 193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно пройти эти\nпещеры, чтобы встретиться с остальными\nв лагере.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, за дело!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> До лагеря осталось не так\nдалеко идти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не сбавляем темп,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы пересечём эту\nгору, мы достигнем лагеря.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðñïêóé üóé\nðåþåñú, œóïáú âòóñåóéóûòÿ ò ïòóàìûîúíé\nâ ìàãåñå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, èà äåìï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äï ìàãåñÿ ïòóàìïòû îå óàë\näàìåëï éäóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå òáàâìÿåí óåíð,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú ðåñåòåœæí üóô\nãïñô, íú äïòóéãîåí ìàãåñÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh... We can\'t let this get us\ndown though, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get ready and go into the\nforest, [hero]!</t>
+  </si>
+  <si>
+    <t>206, 210, 214</t>
+  </si>
+  <si>
+    <t>224, 228, 232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух... Мы не можем позволить\nэтому сбить нас с пути, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай подготовимся и\nотправимся в лес, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö... Íú îå íïçåí ðïèâïìéóû\nüóïíô òáéóû îàò ò ðôóé, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ðïäãïóïâéíòÿ é\nïóðñàâéíòÿ â ìåò, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K] We have\nto reach the top!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get out of here,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We need to run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go as soon as\nyou\'re ready.</t>
+  </si>
+  <si>
+    <t>245, 249, 253</t>
+  </si>
+  <si>
+    <t>263, 267, 271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can\'t give up, [hero]!</t>
+  </si>
+  <si>
+    <t>286, 290, 294</t>
+  </si>
+  <si>
+    <t>304, 308, 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не можем сдаться,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]![K]\nНам нужно достичь вершины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно выбираться\nотсюда, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам надо бежать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пойдём, как только ты\nбудешь готов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пойдём, как только ты\nбудешь готова.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå íïçåí òäàóûòÿ,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]![K]\nÎàí îôçîï äïòóéœû âåñšéîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï âúáéñàóûòÿ\nïóòýäà, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îàäï áåçàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïêäæí, ëàë óïìûëï óú\náôäåšû ãïóïâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïêäæí, ëàë óïìûëï óú\náôäåšû ãïóïâà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re getting close.[K]\nLet\'s keep going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти на месте.[K]\nИдём дальше!</t>
+  </si>
+  <si>
+    <t>364, 368, 372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not much farther to go...[K]\nWe have to hold on!</t>
+  </si>
+  <si>
+    <t>382, 386, 390</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам осталось недалеко...[K]\nНам нужно продержаться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé îà íåòóå.[K]\nÉäæí äàìûšå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí ïòóàìïòû îåäàìåëï...[K]\nÎàí îôçîï ðñïäåñçàóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re back to working on the\nguild\'s regular training, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s do more jobs from the\nJob Bulletin Board and Outlaw Notice Board.</t>
+  </si>
+  <si>
+    <t>1288, 1292, 1296</t>
+  </si>
+  <si>
+    <t>1302, 1306, 1310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы снова начинаем наши\nгильдейские тренировки, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно выполнять задания\nс Доски Объявлений и Доски Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òîïâà îàœéîàåí îàšé\nãéìûäåêòëéå óñåîéñïâëé, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï âúðïìîÿóû èàäàîéÿ\nò Äïòëé Ïáùÿâìåîéê é Äïòëé Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Chatot[CR] was disappointed...[K]\nWe can\'t do anything about it, though.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should deal with jobs from\nthe Job Bulletin Board and Outlaw Notice Board\nfor now.</t>
+  </si>
+  <si>
+    <t>1223, 1227, 1231</t>
+  </si>
+  <si>
+    <t>1238, 1242, 1246</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to check if [CS:K]Kecleon[CR]\nMarket will be selling Perfect Apples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to [CS:K]Kecleon[CR] Market,\n[hero].</t>
+  </si>
+  <si>
+    <t>1256, 1260, 1264</t>
+  </si>
+  <si>
+    <t>1270, 1274, 1278</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Чатот[CR] разочарован...[K] Но мы\nничего с этим не поделаем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Займёмся заданиями с Доски\nОбъявлений и Доски Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно узнать, будет ли\nЛавка [CS:K]Кеклеонов[CR] продавать Идеальные\nЯблоки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся к Лавке\n[CS:K]Кеклеонов[CR], [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Œàóïó[CR] ñàèïœàñïâàî...[K] Îï íú\nîéœåãï ò üóéí îå ðïäåìàåí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàêíæíòÿ èàäàîéÿíé ò Äïòëé\nÏáùÿâìåîéê é Äïòëé Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ôèîàóû, áôäåó ìé\nÌàâëà [CS:K]Ëåëìåïîïâ[CR] ðñïäàâàóû Éäåàìûîúå\nŸáìïëé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ ë Ìàâëå\n[CS:K]Ëåëìåïîïâ[CR], [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We need to hear what [CS:N]Torkoal[CR]\nhas to say, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaah! This is nice, [hero]!</t>
+  </si>
+  <si>
+    <t>716, 720, 724</t>
+  </si>
+  <si>
+    <t>734, 738, 742</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This place is so relaxing.</t>
+  </si>
+  <si>
+    <t>748, 752, 756</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s lounge for a while before\ngoing back.</t>
+  </si>
+  <si>
+    <t>762, 766, 770</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно узнать, что хочет\nсказать нам [CS:N]Торкоал[CR], [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аааах! Как хорошо,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это место так расслабляет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай немного побудем\nздесь, прежде чем возвращаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ôèîàóû, œóï öïœåó\nòëàèàóû îàí [CS:N]Óïñëïàì[CR], [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ààààö! Ëàë öïñïšï,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï íåòóï óàë ñàòòìàáìÿåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê îåíîïãï ðïáôäåí\nèäåòû, ðñåçäå œåí âïèâñàþàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get back the [CS:Z]Water\nFloat[CR] this time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to [CS:P]Amp Plains[CR]!</t>
+  </si>
+  <si>
+    <t>1159, 1163, 1167</t>
+  </si>
+  <si>
+    <t>1173, 1177, 1181</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to go to [CS:P]Amp Plains[CR]\nand recover the [CS:Z]Water Float[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry, [hero]! We have\nto go!</t>
+  </si>
+  <si>
+    <t>1191, 1195, 1199</t>
+  </si>
+  <si>
+    <t>1205, 1209, 1213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз мы сможем\nвернуть [CS:Z]Поплавок[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся на [CS:P]Скалистые\nРавнины[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно отправиться на\n[CS:P]Скалистые Равнины[CR] и забрать [CS:Z]Поплавок[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скорее, [hero]!\nНам нужно идти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè íú òíïçåí\nâåñîôóû [CS:Z]Ðïðìàâïë[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ îà [CS:P]Òëàìéòóúå\nÑàâîéîú[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ïóðñàâéóûòÿ îà\n[CS:P]Òëàìéòóúå Ñàâîéîú[CR] é èàáñàóû [CS:Z]Ðïðìàâïë[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñåå, [hero]!\nÎàí îôçîï éäóé!</t>
   </si>
 </sst>
 </file>
@@ -717,7 +1048,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +1064,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -916,6 +1259,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,10 +1553,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,41 +1591,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>1844</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12">
         <v>407</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,13 +1631,13 @@
         <v>411</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1299,13 +1647,13 @@
         <v>414</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1315,29 +1663,29 @@
         <v>425</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1347,13 +1695,13 @@
         <v>439</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1363,13 +1711,13 @@
         <v>443</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1379,30 +1727,28 @@
         <v>447</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="10"/>
       <c r="C11" s="1">
         <v>1826</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1411,13 +1757,13 @@
         <v>1830</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1427,49 +1773,45 @@
         <v>1834</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
       <c r="B15" s="26"/>
       <c r="C15" s="12">
         <v>1790</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1479,13 +1821,13 @@
         <v>1794</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,13 +1837,13 @@
         <v>1798</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -1511,13 +1853,13 @@
         <v>1772</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -1527,13 +1869,13 @@
         <v>1776</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -1543,13 +1885,13 @@
         <v>1780</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -1559,13 +1901,13 @@
         <v>1758</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -1575,13 +1917,13 @@
         <v>1762</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -1591,13 +1933,13 @@
         <v>1766</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1606,45 +1948,45 @@
         <v>1744</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="21"/>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="21"/>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1653,108 +1995,108 @@
         <v>1712</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="21"/>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="21"/>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1763,45 +2105,45 @@
         <v>1686</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>117</v>
-      </c>
       <c r="F35" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1810,13 +2152,13 @@
         <v>1520</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1825,13 +2167,13 @@
         <v>1524</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1840,93 +2182,93 @@
         <v>1528</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="21"/>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="21"/>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="21"/>
       <c r="C42" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="21"/>
       <c r="C44" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1935,13 +2277,13 @@
         <v>1410</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1950,13 +2292,13 @@
         <v>1414</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -1965,189 +2307,317 @@
         <v>1418</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="21"/>
       <c r="C48" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="21"/>
       <c r="C49" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="21"/>
       <c r="C50" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="21"/>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="21"/>
       <c r="C52" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="27"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>187</v>
-      </c>
       <c r="F53" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="21"/>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="21"/>
       <c r="C55" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="21"/>
       <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="21"/>
       <c r="C57" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>216</v>
+    </row>
+    <row r="59" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2159,12 +2629,413 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="31">
+        <v>318</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="32">
+        <v>322</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2196,62 +3067,62 @@
     </row>
     <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="C3" s="29" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="C5" s="29" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>136</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Обычные Фразы" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="504">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1002,6 +1002,537 @@
   </si>
   <si>
     <t xml:space="preserve"> Òëïñåå, [hero]!\nÎàí îôçîï éäóé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/m12a0301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! We blew that try…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! That ended badly…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! That wasn\'t so good…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s harder than I thought...[K]\nLet\'s go home for today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm... This won\'t be easy...[K]\nLet\'s call it a day.</t>
+  </si>
+  <si>
+    <t>24, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух!\nЭто провальная попытка...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух!\nДобром это не кончилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух!\nНеприятно получилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это труднее, чем я думал...[K]\nЛучше пойдём домой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм... Это непросто...[K]\nЗакончим на сегодня.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö!\nÜóï ðñïâàìûîàÿ ðïðúóëà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö!\nÄïáñïí üóï îå ëïîœéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö!\nÎåðñéÿóîï ðïìôœéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óñôäîåå, œåí ÿ äôíàì...[K]\nÌôœšå ðïêäæí äïíïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí... Üóï îåðñïòóï...[K]\nÈàëïîœéí îà òåãïäîÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re almost there. There\'s no\ngiving up now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have no idea what\'s waiting\nfor us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go carefully, [hero].</t>
+  </si>
+  <si>
+    <t>314, 318, 322</t>
+  </si>
+  <si>
+    <t>332, 336, 340</t>
+  </si>
+  <si>
+    <t>346, 350, 354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти пришли. Мы не\nможем сдаться сейчас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы понятия не имеем, что\nнас ждёт дальше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём осторожнее, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé ðñéšìé. Íú îå\níïçåí òäàóûòÿ òåêœàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïîÿóéÿ îå éíååí, œóï\nîàò çäæó äàìûšå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí ïòóïñïçîåå, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sure! Let\'s go out there again!</t>
+  </si>
+  <si>
+    <t>1045, 1049, 1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Back to [CS:P]Quicksand Desert[CR]!</t>
+  </si>
+  <si>
+    <t>1059, 1063, 1067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to the [CS:P]Northern Desert[CR]\nand search for a Time Gear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s work at it, [hero]!</t>
+  </si>
+  <si>
+    <t>1077, 1081, 1085</t>
+  </si>
+  <si>
+    <t>1091, 1095, 1099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K]\nOff to the [CS:P]Northern Desert[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry, [hero]! We have\nto get ready too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When we\'re ready, we have to\ngo back to the guild.</t>
+  </si>
+  <si>
+    <t>1109, 1113, 1117</t>
+  </si>
+  <si>
+    <t>1127, 1131, 1135</t>
+  </si>
+  <si>
+    <t>1141, 1145, 1149</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Конечно! Отправимся туда\nснова!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся в [CS:P]Северную\nПустыню[CR] и поищем Шестерню Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> За дело, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скорее, [hero]!\nНам тоже нужно подготовиться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы подготовимся, нам\nнужно будет вернуться в гильдию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåœîï! Ïóðñàâéíòÿ óôäà\nòîïâà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ â [CS:P]Òåâåñîôý\nÐôòóúîý[CR] é ðïéþåí Šåòóåñîý Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èà äåìï, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñåå, [hero]!\nÎàí óïçå îôçîï ðïäãïóïâéóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú ðïäãïóïâéíòÿ, îàí\nîôçîï áôäåó âåñîôóûòÿ â ãéìûäéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, [hero]![K]\nОтправимся в [CS:P]Северную Пустыню[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, [hero]![K]\nÏóðñàâéíòÿ â [CS:P]Òåâåñîôý Ðôòóúîý[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вернёмся в [CS:P]Зыбучую Пустыню[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñîæíòÿ â [CS:P]Èúáôœôý Ðôòóúîý[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/m14a0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, [hero].[K] We should\ninvestigate [CS:P]Quicksand Cave[CR].</t>
+  </si>
+  <si>
+    <t>1027, 1031, 1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero].[K] Нам нужно\nисследовать [CS:P]Зыбучую Пещеру[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero].[K] Îàí îôçîï\néòòìåäïâàóû [CS:P]Èúáôœôý Ðåþåñô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re nearly\nthere, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep at it and get to\n[CS:P]Crystal Crossing[CR]!</t>
+  </si>
+  <si>
+    <t>931, 935, 939</t>
+  </si>
+  <si>
+    <t>945, 949, 953</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There has to be a secret at\n[CS:P]Crystal Cave[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K]\nWe\'re off to [CS:P]Crystal Cave[CR]!</t>
+  </si>
+  <si>
+    <t>963, 967, 971</t>
+  </si>
+  <si>
+    <t>977, 981, 985</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should go too, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Off to [CS:P]Crystal Cave[CR]!</t>
+  </si>
+  <si>
+    <t>995, 999, 1003</t>
+  </si>
+  <si>
+    <t>1009, 1013, 1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти пришли, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Продолжим идти и доберёмся\nдо [CS:P]Кристального Перехода[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В [CS:P]Кристальной Пещере[CR] должен\nбыть скрыт какой-то секрет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]![K]\nМы отправляемся в [CS:P]Кристальную Пещеру[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно идти, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, в [CS:P]Кристальную\nПещеру[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé ðñéšìé, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïäïìçéí éäóé é äïáåñæíòÿ\näï [CS:P]Ëñéòóàìûîïãï Ðåñåöïäà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â [CS:P]Ëñéòóàìûîïê Ðåþåñå[CR] äïìçåî\náúóû òëñúó ëàëïê-óï òåëñåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]![K]\nÍú ïóðñàâìÿåíòÿ â [CS:P]Ëñéòóàìûîôý Ðåþåñô[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï éäóé, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, â [CS:P]Ëñéòóàìûîôý\nÐåþåñô[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep it up, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We came quite far now…</t>
+  </si>
+  <si>
+    <t>250, 253, 258</t>
+  </si>
+  <si>
+    <t>268, 272, 276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There might be something if we\ngo a little farther.</t>
+  </si>
+  <si>
+    <t>282, 286, 290</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go for it, [hero]!</t>
+  </si>
+  <si>
+    <t>296, 300, 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём дальше, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже далеко зашли...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы пройдём чуточку\nдальше, то, возможно, придём к чему-то.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí äàìûšå, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå äàìåëï èàšìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú ðñïêäæí œôóïœëô\näàìûšå, óï, âïèíïçîï, ðñéäæí ë œåíô-óï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! The going\'s rough here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! It\'s really tough here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! The going is really\nrough here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we don\'t have far to go. We\ncan\'t give up. We have to keep trying!</t>
+  </si>
+  <si>
+    <t>80, 84, 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Тут очень трудно\nпройти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Как же здесь трудно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Как же здесь трудно\nпройти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но нам осталось недалеко.\nМы не можем сдаться. Продолжим наши\nпопытки!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Óôó ïœåîû óñôäîï\nðñïêóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Ëàë çå èäåòû óñôäîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Ëàë çå èäåòû óñôäîï\nðñïêóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàí ïòóàìïòû îåäàìåëï.\nÍú îå íïçåí òäàóûòÿ. Ðñïäïìçéí îàšé\nðïðúóëé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D15P21A/m14a0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think we\'re locked in...[K] Ugh…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s happening at [CS:P]Crystal Lake[CR]\nis really intriguing, but we can\'t go there.</t>
+  </si>
+  <si>
+    <t>777, 781, 785</t>
+  </si>
+  <si>
+    <t>795, 799, 803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to trust that the great\n[CS:N]Dusknoir[CR] will complete his plan.</t>
+  </si>
+  <si>
+    <t>810, 814, 818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should do the jobs on the\nJob Bulletin Board and the Outlaw Notice\nBoard as usual.</t>
+  </si>
+  <si>
+    <t>824, 828, 832</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m curious about what\'s\nhappening at [CS:P]Crystal Lake[CR].</t>
+  </si>
+  <si>
+    <t>842, 846, 850</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we could ruin plans if we\nwent there without permission.</t>
+  </si>
+  <si>
+    <t>856, 860, 864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll have to carry on like we\nusually do.</t>
+  </si>
+  <si>
+    <t>870, 874, 878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s count on the great\n[CS:N]Dusknoir[CR]. We have to wait for him.</t>
+  </si>
+  <si>
+    <t>885, 889, 893</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Job Bulletin Board and\nOutlaw Notice Board have jobs for us today.</t>
+  </si>
+  <si>
+    <t>899, 903, 907</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s put in another good day,\n[hero]!</t>
+  </si>
+  <si>
+    <t>913, 917, 921</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, мы заперты...[K] Эх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Конечно, интересно, что\nсейчас происходит на [CS:P]Кристальном Озере[CR],\nно мы не можем туда пойти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Понадеемся, что великий\n[CS:N]Даскнуар[CR] успешно завершит свой план.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно как и всегда\nвыполнять задания с Доски Объявлений и\nДоски Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, что сейчас\nпроисходит на [CS:P]Кристальном Озере[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но если мы пойдём туда без\nразрешения, мы можем всё испортить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам придётся делать то же,\nчто и всегда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Будем надеяться на великого\n[CS:N]Даскнуара[CR]. Будем ждать его.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сегодня нас ждут задания с\nДоски Объявлений и Доски Разыскиваемых.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пора нам хорошенько\nпотрудиться, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, íú èàðåñóú...[K] Üö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåœîï, éîóåñåòîï, œóï\nòåêœàò ðñïéòöïäéó îà [CS:P]Ëñéòóàìûîïí Ïèåñå[CR],\nîï íú îå íïçåí óôäà ðïêóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïîàäååíòÿ, œóï âåìéëéê\n[CS:N]Äàòëîôàñ[CR] ôòðåšîï èàâåñšéó òâïê ðìàî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ëàë é âòåãäà\nâúðïìîÿóû èàäàîéÿ ò Äïòëé Ïáùÿâìåîéê é\nÄïòëé Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, œóï òåêœàò\nðñïéòöïäéó îà [CS:P]Ëñéòóàìûîïí Ïèåñå[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï åòìé íú ðïêäæí óôäà áåè\nñàèñåšåîéÿ, íú íïçåí âòæ éòðïñóéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí ðñéäæóòÿ äåìàóû óï çå,\nœóï é âòåãäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäåí îàäåÿóûòÿ îà âåìéëïãï\n[CS:N]Äàòëîôàñà[CR]. Áôäåí çäàóû åãï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåãïäîÿ îàò çäôó èàäàîéÿ ò\nÄïòëé Ïáùÿâìåîéê é Äïòëé Ñàèúòëéâàåíúö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñà îàí öïñïšåîûëï\nðïóñôäéóûòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s catch up to [CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll leave as soon as\nwe\'re ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go as soon as\nwe\'re ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Догоним [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы отправимся сразу же,\nкак будем готовы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся сразу же, как\nбудем готовы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïãïîéí [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïóðñàâéíòÿ òñàèô çå,\nëàë áôäåí ãïóïâú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ òñàèô çå, ëàë\náôäåí ãïóïâú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We almost made it.[K] Let\'s give it\nour best again!</t>
+  </si>
+  <si>
+    <t>396, 400, 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé ðñéšìé.[K] Âúìïçéíòÿ\nîà ðïìîôý, ëàë é âòåãäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти пришли.[K] Выложимся\nна полную, как и всегда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve come quite far.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It can\'t be far now.[K] Let\'s tough\nit out, [hero]!</t>
+  </si>
+  <si>
+    <t>218, 222, 226</t>
+  </si>
+  <si>
+    <t>232, 236, 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже довольно далеко\nзашли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Осталось не так долго идти.[K]\nМы справимся, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå äïâïìûîï äàìåëï\nèàšìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòóàìïòû îå óàë äïìãï éäóé.[K]\nÍú òðñàâéíòÿ, [hero]!</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1268,6 +1799,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1553,10 +2087,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,19 +3139,547 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="20" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="27"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="27"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="27"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="27"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="28"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="28"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="34"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="34"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="34"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="34"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="34"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="34"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="34"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="34"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="34"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="34"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -2631,10 +3693,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3022,6 +4084,86 @@
         <v>326</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3032,10 +4174,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3125,6 +4267,143 @@
         <v>137</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19">
+        <v>32</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="1">
+        <v>65</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>69</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>73</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="662">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -1533,6 +1533,480 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïòóàìïòû îå óàë äïìãï éäóé.[K]\nÍú òðñàâéíòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t feel good about taking the\nTime Gear, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We don\'t have any choice now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K]\nInto the forest!</t>
+  </si>
+  <si>
+    <t>414, 418, 422</t>
+  </si>
+  <si>
+    <t>428, 432, 436</t>
+  </si>
+  <si>
+    <t>443, 447, 451</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне не нравится забирать\nШестерню Времени, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас нет другого выбора.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, [hero]![K]\nВ лес!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå îå îñàâéóòÿ èàáéñàóû\nŠåòóåñîý Âñåíåîé, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò îåó äñôãïãï âúáïñà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, [hero]![K]\nÂ ìåò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go meet the wise old\n[CS:N]Torkoal[CR] at the Hot Spring, [hero]!</t>
+  </si>
+  <si>
+    <t>694, 698, 702</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can go to the Hot Spring\nfrom [CS:P]Waterfall Cave[CR]!</t>
+  </si>
+  <si>
+    <t>708, 712, 716</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go![K] To the Hot Spring!</t>
+  </si>
+  <si>
+    <t>722, 726, 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, [hero]! We can go to\nthe Hot Spring from [CS:P]Waterfall Cave[CR]!</t>
+  </si>
+  <si>
+    <t>740, 744, 748</t>
+  </si>
+  <si>
+    <t>754, 758, 762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно встретиться с\nмудрым [CS:N]Торкоалом[CR] на Горячих Источниках,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы сможем попасть на\nГорячие Источники через [CS:P]Пещеру за\nВодопадом[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд![K]\nК Горячим Источникам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так, [hero]!\nМы сможем попасть на Горячие Источники\nчерез [CS:P]Пещеру за Водопадом[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï âòóñåóéóûòÿ ò\níôäñúí [CS:N]Óïñëïàìïí[CR] îà Ãïñÿœéö Éòóïœîéëàö,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òíïçåí ðïðàòóû îà\nÃïñÿœéå Éòóïœîéëé œåñåè [CS:P]Ðåþåñô èà\nÂïäïðàäïí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä![K]\nË Ãïñÿœéí Éòóïœîéëàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë, [hero]!\nÍú òíïçåí ðïðàòóû îà Ãïñÿœéå Éòóïœîéëé\nœåñåè [CS:P]Ðåþåñô èà Âïäïðàäïí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s swing by the beach before\nwe go back to the guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We may even run into\n[CS:N]Grovyle[CR] there.</t>
+  </si>
+  <si>
+    <t>512, 516, 520</t>
+  </si>
+  <si>
+    <t>526, 530, 534</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s swing by Sharpedo Bluff\nbefore going back to the guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who knows? [CS:N]Grovyle[CR] may have\ncome back!</t>
+  </si>
+  <si>
+    <t>549, 553, 557</t>
+  </si>
+  <si>
+    <t>563, 567, 571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s swing by Sharpedo Bluff,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get ready for tomorrow\'s\nouting here, [hero].</t>
+  </si>
+  <si>
+    <t>577, 581, 585</t>
+  </si>
+  <si>
+    <t>595, 599, 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re going to [CS:P]Brine Cave[CR]\ntomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get ready for that outing.</t>
+  </si>
+  <si>
+    <t>615, 619, 623</t>
+  </si>
+  <si>
+    <t>629, 633, 637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Off to Treasure Town!</t>
+  </si>
+  <si>
+    <t>643, 647, 651</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go get ready, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to Treasure Town.</t>
+  </si>
+  <si>
+    <t>662, 666, 670</t>
+  </si>
+  <si>
+    <t>676, 680, 684</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прежде чем вернуться в\nгильдию, давай заскочим на пляж.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возможно, мы даже наткнёмся\nтам на [CS:N]Гровайла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прежде чем вернуться в\nгильдию, давай заскочим на Мыс Шарпедо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто знает? Возможно,\n[CS:N]Гровайл[CR] уже вернулся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Заскочим на Мыс Шарпедо,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно подготовиться к\nзавтрашней вылазке, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Завтра мы отправляемся в\n[CS:P]Пещеру у Моря[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подготовимся к этой\nвылазке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, в Город Сокровищ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно подготовиться,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пойдём в Город Сокровищ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåçäå œåí âåñîôóûòÿ â\nãéìûäéý, äàâàê èàòëïœéí îà ðìÿç.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèíïçîï, íú äàçå îàóëîæíòÿ\nóàí îà [CS:N]Ãñïâàêìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåçäå œåí âåñîôóûòÿ â\nãéìûäéý, äàâàê èàòëïœéí îà Íúò Šàñðåäï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï èîàåó? Âïèíïçîï,\n[CS:N]Ãñïâàêì[CR] ôçå âåñîôìòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàòëïœéí îà Íúò Šàñðåäï,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïäãïóïâéóûòÿ ë\nèàâóñàšîåê âúìàèëå, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàâóñà íú ïóðñàâìÿåíòÿ â\n[CS:P]Ðåþåñô ô Íïñÿ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïäãïóïâéíòÿ ë üóïê\nâúìàèëå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, â Ãïñïä Òïëñïâéþ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïäãïóïâéóûòÿ,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêäæí â Ãïñïä Òïëñïâéþ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]! No giving\nup for us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to reach the place\nwith that strange pattern!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re getting close!\nLet\'s keep going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re nearly there! We have to\nkeep at this!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re almost there,\n[hero]! We have to keep going!</t>
+  </si>
+  <si>
+    <t>Maybe [CS:P]Temporal Tower[CR] is…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, maybe, it\'s breaking\nup faster…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to hurry, [hero]!</t>
+  </si>
+  <si>
+    <t>461, 465, 469</t>
+  </si>
+  <si>
+    <t>475, 479, 483</t>
+  </si>
+  <si>
+    <t>494, 498, 502</t>
+  </si>
+  <si>
+    <t>533, 537, 541</t>
+  </si>
+  <si>
+    <t>551, 555, 559</t>
+  </si>
+  <si>
+    <t>565, 569, 573</t>
+  </si>
+  <si>
+    <t>581, 585, 589</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]!\nМы не сдадимся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны достингуть места\nс загадочным узором!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже очень близко!\nПродолжим идти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти пришли! Осталось\nнемного!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти у цели,\n[hero]! Нам нужно идти дальше!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возможно, [CS:P]Темпоральная\nБашня[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, возможно, она\nраспадается всё быстрее...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно поспешить,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]!\nÍú îå òäàäéíòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú äïòóéîãôóû íåòóà\nò èàãàäïœîúí ôèïñïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå ïœåîû áìéèëï!\nÐñïäïìçéí éäóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé ðñéšìé! Ïòóàìïòû\nîåíîïãï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé ô øåìé,\n[hero]! Îàí îôçîï éäóé äàìûšå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèíïçîï, [CS:P]Óåíðïñàìûîàÿ\nÁàšîÿ[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, âïèíïçîï, ïîà\nñàòðàäàåóòÿ âòæ áúòóñåå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïòðåšéóû,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m really worried about [CS:N]Chatot[CR].\nLet\'s get moving!</t>
+  </si>
+  <si>
+    <t>180, 184, 188</t>
+  </si>
+  <si>
+    <t>200, 204, 208</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я очень сильно переживаю\nза [CS:N]Чатота[CR]. Поспешим!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïœåîû òéìûîï ðåñåçéâàý\nèà [CS:N]Œàóïóà[CR]. Ðïòðåšéí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When we\'re ready, we can\ngo to the [CS:P]Hidden Land[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get ready quickly so we\ncan go to the [CS:P]Hidden Land[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Lapras[CR] is down at the beach.\nHe\'s waiting to take us to the [CS:P]Hidden Land[CR].</t>
+  </si>
+  <si>
+    <t>460, 464, 468</t>
+  </si>
+  <si>
+    <t>478, 482, 486</t>
+  </si>
+  <si>
+    <t>492, 496, 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы будем готовы, мы\nотправимся в [CS:P]Сокрытые Земли[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно быстро\nподготовиться, чтобы мы отправились в\n[CS:P]Сокрытые Земли[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Лапрас[CR] находится на пляже.\nОн ждёт нас, чтобы отвезти в [CS:P]Сокрытые\nЗемли[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú áôäåí ãïóïâú, íú\nïóðñàâéíòÿ â [CS:P]Òïëñúóúå Èåíìé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï áúòóñï\nðïäãïóïâéóûòÿ, œóïáú íú ïóðñàâéìéòû â\n[CS:P]Òïëñúóúå Èåíìé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ìàðñàò[CR] îàöïäéóòÿ îà ðìÿçå.\nÏî çäæó îàò, œóïáú ïóâåèóé â [CS:P]Òïëñúóúå\nÈåíìé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve come a long way...[K]\nAren\'t we near the [CS:P]Old Ruins[CR] yet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get through this place and\nfind the Rainbow Stoneship!</t>
+  </si>
+  <si>
+    <t>148, 152, 156</t>
+  </si>
+  <si>
+    <t>162, 166, 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже далеко зашли...[K]\nСкоро мы дойдём до [CS:P]Старых Руин[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пройдём это место и\nнайдём Радужный Камнерабль!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå äàìåëï èàšìé...[K]\nÒëïñï íú äïêäæí äï [CS:P]Òóàñúö Ñôéî[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñïêäæí üóï íåòóï é\nîàêäæí Ñàäôçîúê Ëàíîåñàáìû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re really close.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can do this, [hero]!</t>
+  </si>
+  <si>
+    <t>116, 120, 124</t>
+  </si>
+  <si>
+    <t>130, 134, 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже очень близки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы справимся, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå ïœåîû áìéèëé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òðñàâéíòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re almost there.</t>
+  </si>
+  <si>
+    <t>84, 88, 92</t>
+  </si>
+  <si>
+    <t>98, 102, 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы почти на месте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не сдадимся, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïœóé îà íåòóå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå òäàäéíòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The planet\'s paralysis could take\nplace in our world…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to\nhurry, [hero]!</t>
+  </si>
+  <si>
+    <t>51, 55, 59</t>
+  </si>
+  <si>
+    <t>66, 70, 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро в нашем мире может\nслучиться планетарный паралич...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï â îàšåí íéñå íïçåó\nòìôœéóûòÿ ðìàîåóàñîúê ðàñàìéœ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re so close...[K] There isn\'t any\nway we can give up now, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If [CS:P]Temporal Tower[CR] collapses…</t>
+  </si>
+  <si>
+    <t>18, 22, 26</t>
+  </si>
+  <si>
+    <t>37, 41, 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже так близко...[K] Мы\nсовершенно не можем бросить всё и уйти,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если [CS:P]Темпоральная Башня[CR]\nразрушится...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå óàë áìéèëï...[K] Íú\nòïâåñšåîîï îå íïçåí áñïòéóû âòæ é ôêóé,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé [CS:P]Óåíðïñàìûîàÿ Áàšîÿ[CR]\nñàèñôšéóòÿ...</t>
   </si>
 </sst>
 </file>
@@ -2087,10 +2561,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3667,19 +4141,515 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="1" t="s">
+      <c r="A99" s="27"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="20" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="34"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="34"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="34"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="34"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="27"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="34"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="27"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="34"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="27"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="34"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="27"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="34"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="E112" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="28"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="34"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="27"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="34"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="27"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="34"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="34"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="27"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="E120" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="34"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="27"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="E122" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="34"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="27"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="34"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="27"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E126" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="34"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="27"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="F128" s="20" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="34"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="27"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -3693,10 +4663,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,7 +5102,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
@@ -4162,6 +5132,182 @@
       </c>
       <c r="F28" s="30" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -4176,8 +5322,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Обычные Фразы" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="725">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -2007,6 +2007,195 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé [CS:P]Óåíðïñàìûîàÿ Áàšîÿ[CR]\nñàèñôšéóòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to Treasure Town and\nget ready for an outing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get stocked up on supplies\nand head out to [CS:P]Mystifying Forest[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s do our best and graduate!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you\'re ready, let\'s go out\nto [CS:P]Mystifying Forest[CR], [hero]!</t>
+  </si>
+  <si>
+    <t>1955, 1959, 1963</t>
+  </si>
+  <si>
+    <t>1937, 1941, 1945</t>
+  </si>
+  <si>
+    <t>1905, 1909, 1913</t>
+  </si>
+  <si>
+    <t>1919, 1923, 1927</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anyway, let\'s graduate from\nthe guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s do good, [hero]!</t>
+  </si>
+  <si>
+    <t>1873, 1877, 1881</t>
+  </si>
+  <si>
+    <t>1887, 1891, 1895</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся в Город Сокровищ\nи подготовимся к вылазке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сделаем всё возможное,\nчтобы выпуститься из гильдии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно выпуститься из\nгильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ â Ãïñïä Òïëñïâéþ\né ðïäãïóïâéíòÿ ë âúìàèëå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òäåìàåí âòæ âïèíïçîïå,\nœóïáú âúðôòóéóûòÿ éè ãéìûäéé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï âúðôòóéóûòÿ éè\nãéìûäéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно запастись\nприпасами и отправиться в [CS:P]Загадочный Лес.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда у нас всё будет\nготово, мы отправимся в [CS:P]Загадочный Лес,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï èàðàòóéòû\nðñéðàòàíé é ïóðñàâéóûòÿ â [CS:P]Èàãàäïœîúê Ìåò[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà ô îàò âòæ áôäåó\nãïóïâï, íú ïóðñàâéíòÿ â [CS:P]Èàãàäïœîúê Ìåò[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go as soon as we\'re ready,\n[hero].</t>
+  </si>
+  <si>
+    <t>601, 605, 609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пойдем по мере\nготовности, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Будем стараться и\nвыпустимся из гильдии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïêäåí ðï íåñå\nãïóïâîïòóé, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäåí òóàñàóûòÿ é\nâúðôòóéíòÿ éè ãéìûäéé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve come a long way in here.</t>
+  </si>
+  <si>
+    <t>791, 795, 799</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïâïìûîï äàìåëï èàáñåìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы довольно далеко забрели.</t>
+  </si>
+  <si>
+    <t>Пора за дело, [hero]!</t>
+  </si>
+  <si>
+    <t>Ðïñà èà äåìï, [hero]!</t>
+  </si>
+  <si>
+    <t>1855, 1859, 1863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s work hard as always,\n[hero]!</t>
+  </si>
+  <si>
+    <t>1014, 1018, 1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай как и всегда,\nтрудиться изо всех сил, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ëàë é âòåãäà,\nóñôäéóûòÿ éèï âòåö òéì, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you hear that?\nPiles of treasure and new discoveries!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d love to meet these [CS:K]Shaymin[CR]!\nLet\'s go!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To the [CS:P]Shaymin Village[CR]!</t>
+  </si>
+  <si>
+    <t>1807, 1811, 1815</t>
+  </si>
+  <si>
+    <t>1821, 1825, 1829</t>
+  </si>
+  <si>
+    <t>1835, 1839, 1843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты ведь знаешь, да? Кучи\nсокровищ и новые открытия!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я очень хочу увидеть\n[CS:K]Шейминов[CR]! Пойдём!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В [CS:P]Деревню Шейминов[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú âåäû èîàåšû, äà? Ëôœé\nòïëñïâéþ é îïâúå ïóëñúóéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïœåîû öïœô ôâéäåóû\n[CS:K]Šåêíéîïâ[CR]! Ðïêäæí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â [CS:P]Äåñåâîý Šåêíéîïâ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]! Once we\'ve gotten\nready, let\'s head to the mountain pass!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s aim for the top of\n[CS:P]Sky Peak[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]![K]\nLet\'s go to the [CS:P]Shaymin Village[CR]!</t>
+  </si>
+  <si>
+    <t>1756, 1760, 1764</t>
+  </si>
+  <si>
+    <t>1770, 1774, 1778</t>
+  </si>
+  <si>
+    <t>1788, 1792, 1796</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]! Как только мы\nподготовимся, давай пойдём к горной тропе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы доберёмся до вершины\n[CS:P]Небесного Пика[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]! Ëàë óïìûëï íú\nðïäãïóïâéíòÿ, äàâàê ðïêäæí ë ãïñîïê óñïðå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïáåñæíòÿ äï âåñšéîú\n[CS:P]Îåáåòîïãï Ðéëà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]![K] Ðïêäæí â\n[CS:P]Äåñåâîý Šåêíéîïâ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]![K] Пойдём в\n[CS:P]Деревню Шейминов[CR]!</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2170,11 +2359,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2276,6 +2485,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2561,10 +2788,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4652,6 +4879,22 @@
         <v>661</v>
       </c>
     </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="34"/>
+      <c r="B131" s="21"/>
+    </row>
+    <row r="132" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="34"/>
+      <c r="B132" s="21"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="34"/>
+      <c r="B133" s="21"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="34"/>
+      <c r="B134" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4663,10 +4906,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5294,20 +5537,292 @@
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="38" t="s">
         <v>584</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="38" t="s">
         <v>599</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="38" t="s">
         <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="34"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="24" t="s">
+        <v>691</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>693</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="24" t="s">
+        <v>696</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="34"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Фразы Спутника.xlsx
+++ b/Texts/Город Сокровищ/Фразы Спутника.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="985">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -2196,6 +2196,786 @@
   </si>
   <si>
     <t xml:space="preserve"> [hero]![K] Пойдём в\n[CS:P]Деревню Шейминов[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Scizor[CR] sounds like he was a\nfamous explorer of his time!</t>
+  </si>
+  <si>
+    <t>1706, 1710, 1714</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He supposedly went missing\nwhile exploring [CS:P]Blizzard Island[CR].</t>
+  </si>
+  <si>
+    <t>1720, 1724, 1728</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Scizor[CR] was supposed to be\nsearching for an amazing treasure.[K] I wonder\nwhat that was…</t>
+  </si>
+  <si>
+    <t>1734, 1738, 1742</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, в своё время, [CS:N]Сизор[CR]\nбыл известным исследователем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Предположительно, он\nпропал, исследуя [CS:P]Остров Метели[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Сизор[CR] искал удивительное\nсокровище. Интересно, какое...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, â òâïæ âñåíÿ, [CS:N]Òéèïñ[CR]\náúì éèâåòóîúí éòòìåäïâàóåìåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåäðïìïçéóåìûîï, ïî\nðñïðàì, éòòìåäôÿ [CS:P]Ïòóñïâ Íåóåìé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Òéèïñ[CR] éòëàì ôäéâéóåìûîïå\nòïëñïâéþå. Éîóåñåòîï, ëàëïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, now we have Secret Rank\ncertification…</t>
+  </si>
+  <si>
+    <t>1616, 1620, 1624</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder what it\'s all about…</t>
+  </si>
+  <si>
+    <t>1630, 1634, 1638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That reminds me about that\n[CS:N]Scizor[CR]…</t>
+  </si>
+  <si>
+    <t>1644, 1648, 1652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wasn\'t he supposed to be looking\nfor an amazing treasure?</t>
+  </si>
+  <si>
+    <t>1658, 1662, 1666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Well, too bad.[K] Getting stuck on\nthe small details doesn\'t help.</t>
+  </si>
+  <si>
+    <t>1674, 1678, 1682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who knows what a Secret Rank\nmeans for us? But it could turn out to be cool.</t>
+  </si>
+  <si>
+    <t>1688, 1692, 1696</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь у нас есть Секретный\nРанг...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, что это значит...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кстати, о [CS:N]Сизоре[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разве он не должен был\nискать какое-то уникальное сокровище?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ну, очень жаль.[K]\nМы ничего не добьёмся, если будем вдаваться\nв подробности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто знает, что для нас\nозначает Секретный Ранг? Но, он может\nоказаться чем-то полезным.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû ô îàò åòóû Òåëñåóîúê\nÑàîã...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, œóï üóï èîàœéó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëòóàóé, ï [CS:N]Òéèïñå[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèâå ïî îå äïìçåî áúì\néòëàóû ëàëïå-óï ôîéëàìûîïå òïëñïâéþå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îô, ïœåîû çàìû.[K]\nÍú îéœåãï îå äïáûæíòÿ, åòìé áôäåí âäàâàóûòÿ\nâ ðïäñïáîïòóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï èîàåó, œóï äìÿ îàò\nïèîàœàåó Òåëñåóîúê Ñàîã? Îï, ïî íïçåó\nïëàèàóûòÿ œåí-óï ðïìåèîúí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To the [CS:P]Surrounded Sea[CR]!</t>
+  </si>
+  <si>
+    <t>1582, 1586, 1590</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам тоже нужно идти,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отправимся в [CS:P]Закрытое Море[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí óïçå îôçîï éäóé,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóðñàâéíòÿ â [CS:P]Èàëñúóïå Íïñå[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get some [CS:I]Blue Gummis[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think we can find [CS:I]Blue Gummis[CR]\nin [CS:P]Craggy Coast[CR].</t>
+  </si>
+  <si>
+    <t>1550, 1554, 1558</t>
+  </si>
+  <si>
+    <t>1564, 1568, 1572</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно достать [CS:I]Синего\nЖеле[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Думаю, мы сможем найти\n[CS:I]Синее Желе[CR] на [CS:P]Скалистом Берегу[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï äïòóàóû [CS:I]Òéîåãï\nÇåìå[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äôíàý, íú òíïçåí îàêóé\n[CS:I]Òéîåå Çåìå[CR] îà [CS:P]Òëàìéòóïí Áåñåãô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go get another [CS:I]Blue Gummi[CR]\nfor [CS:N]Manaphy[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s give another [CS:I]Blue Gummi[CR] to\nbaby [CS:N]Manaphy[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Manaphy[CR] is hungry. The poor\nlittle guy\'s waiting at the guild.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We need to take [CS:I]Blue Gummis[CR] to\n[CS:N]Manaphy[CR]. Let\'s not waste time.</t>
+  </si>
+  <si>
+    <t>1482, 1486, 1490</t>
+  </si>
+  <si>
+    <t>1500, 1504, 1508</t>
+  </si>
+  <si>
+    <t>1518, 1522, 1526</t>
+  </si>
+  <si>
+    <t>1532, 1536, 1540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно добыть [CS:I]Синего\nЖеле[CR] для [CS:N]Манафи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дадим малышу [CS:N]Манафи[CR] ещё\nодно [CS:I]Синее Желе[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Манафи[CR] хочет кушать.\nБедняжка ждёт нас в гильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно отнести [CS:I]Синее\nЖеле[CR] [CS:N]Манафи[CR]. Не будем терять времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï äïáúóû [CS:I]Òéîåãï\nÇåìå[CR] äìÿ [CS:N]Íàîàõé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàäéí íàìúšô [CS:N]Íàîàõé[CR] åþæ\nïäîï [CS:I]Òéîåå Çåìå[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàîàõé[CR] öïœåó ëôšàóû.\nÁåäîÿçëà çäæó îàò â ãéìûäéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ïóîåòóé [CS:I]Òéîåå\nÇåìå[CR] [CS:N]Íàîàõé[CR]. Îå áôäåí óåñÿóû âñåíåîé.</t>
+  </si>
+  <si>
+    <t>[CN]Who would you like to speak to?</t>
+  </si>
+  <si>
+    <t>[partner]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s take baby [CS:N]Manaphy[CR] to the\nbeach for a walk!</t>
+  </si>
+  <si>
+    <t>[CS:N]Manaphy[CR]</t>
+  </si>
+  <si>
+    <t>Манафи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero]! ♪\n[partner]! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Walk-walk! ♪</t>
+  </si>
+  <si>
+    <t>[CN]С кем вы хотите поговорить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Отведем [CS:N]Манафи[CR] на пляжную\nпрогулку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гулять-гулять! ♪</t>
+  </si>
+  <si>
+    <t>[CS:N]Манафи[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Ò ëåí âú öïóéóå ðïãïâïñéóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïóâåäåí [CS:N]Íàîàõé[CR] îà ðìÿçîôý\nðñïãôìëô!</t>
+  </si>
+  <si>
+    <t>[CS:N]Íàîàõé[CR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãôìÿóû-ãôìÿóû! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [hero]![K] W-we have to\nfind [CS:N]Manaphy[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argh![K] Where has he gone...?</t>
+  </si>
+  <si>
+    <t>1407, 1411, 1415</t>
+  </si>
+  <si>
+    <t>1389, 1393, 1397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Арх![K] Куда же он делся?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, [hero]![K]\nН-нам нужно найти [CS:N]Манафи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, [hero]![K]\nÎ-îàí îôçîï îàêóé [CS:N]Íàîàõé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àñö![K] Ëôäà çå ïî äåìòÿ?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to go to the\n[CS:P]Miracle Sea[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to find the [CS:N]Phione[CR].\nThey can help us cure [CS:N]Manaphy[CR]!</t>
+  </si>
+  <si>
+    <t>1357, 1361, 1365</t>
+  </si>
+  <si>
+    <t>1371, 1375, 1379</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], нам нужно\nпопасть в [CS:P]Дивное Море[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы должны найти [CS:N]Фионов[CR].\nОни могут помочь нам вылечить [CS:N]Манафи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], îàí îôçîï\nðïðàòóû â [CS:P]Äéâîïå Íïñå[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïìçîú îàêóé [CS:N]Õéïîïâ[CR].\nÏîé íïãôó ðïíïœû îàí âúìåœéóû [CS:N]Íàîàõé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go to [CS:P]Aegis Cave[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t>1291, 1295, 1299</t>
+  </si>
+  <si>
+    <t>1309, 1313, 1317</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [CS:X]Charm[CR] should already\nbe there!</t>
+  </si>
+  <si>
+    <t>1323, 1327, 1331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should catch up to them!</t>
+  </si>
+  <si>
+    <t>1337, 1341, 1345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пойдём в [CS:P]Пещеру Эгиды[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда [CS:X]Шарм[CR] должна уже\nбыть там!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не будем отставать от них!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêäæí â [CS:P]Ðåþåñô Üãéäú[CR],\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà [CS:X]Šàñí[CR] äïìçîà ôçå\náúóû óàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå áôäåí ïóòóàâàóû ïó îéö!</t>
+  </si>
+  <si>
+    <t>1271, 1275, 1279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай проведём этот день с\nпользой, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê ðñïâåäæí üóïó äåîû ò\nðïìûèïê, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you\'re ready to leave,\n[hero], we have to go see [CS:N]Drowzee[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll get [CS:N]Drowzee[CR] to send us\ninto [CS:N]Azurill[CR]\'s dream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K] We have\nto find [CS:N]Drowzee[CR] on [CS:P]Mt. Travail[CR]!</t>
+  </si>
+  <si>
+    <t>1221, 1225, 1229</t>
+  </si>
+  <si>
+    <t>1235, 1239, 1243</t>
+  </si>
+  <si>
+    <t>1253, 1257, 1261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы приготовимся идти,\n[hero], мы должны поговорить с\n[CS:N]Дроузи[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы скажем [CS:N]Дроузи[CR], чтобы он\nотправил нас в сон [CS:N]Азурилла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём, [hero]![K] Нам нужно\nнайти [CS:N]Дроузи[CR] на [CS:P]Горе Травейл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú ðñéãïóïâéíòÿ éäóé,\n[hero], íú äïìçîú ðïãïâïñéóû ò\n[CS:N]Äñïôèé[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òëàçåí [CS:N]Äñïôèé[CR], œóïáú ïî\nïóðñàâéì îàò â òïî [CS:N]Àèôñéììà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí, [hero]![K] Îàí îôçîï\nîàêóé [CS:N]Äñïôèé[CR] îà [CS:P]Ãïñå Óñàâåêì[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go into [CS:N]Azurill[CR]\'s dream,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Drowzee[CR]\'s going to send us into\nthe dream!</t>
+  </si>
+  <si>
+    <t>1189, 1193, 1197</t>
+  </si>
+  <si>
+    <t>1203, 1207, 1211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно попасть в сон\n[CS:N]Азурилла[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Дроузи[CR] отправит нас\nпрямиком в его сон!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïðàòóû â òïî\n[CS:N]Àèôñéììà[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äñïôèé[CR] ïóðñàâéó îàò\nðñÿíéëïí â åãï òïî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Lapras[CR] told us everything\nhe knows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to investigate on our\nown now.</t>
+  </si>
+  <si>
+    <t>1125, 1129, 1133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Lapras[CR] may know something!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go down to the beach,\n[hero]!</t>
+  </si>
+  <si>
+    <t>1139, 1143, 1147</t>
+  </si>
+  <si>
+    <t>1157, 1161, 1165</t>
+  </si>
+  <si>
+    <t>1171, 1175, 1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Лапрас[CR] может что-то знать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пойдём на пляж, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Лапрас[CR] рассказал всё, что\nон знает.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Теперь нам нужно самим во\nвсём разобраться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ìàðñàò[CR] íïçåó œóï-óï èîàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêäæí îà ðìÿç, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ìàðñàò[CR] ñàòòëàèàì âòæ, œóï\nïî èîàåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óåðåñû îàí îôçîï òàíéí âï\nâòæí ñàèïáñàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we stay here, [CS:N]Palkia[CR] could\nfind us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s leave this place\nright away.</t>
+  </si>
+  <si>
+    <t>681, 685, 689</t>
+  </si>
+  <si>
+    <t>695, 699, 703</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы будем здесь стоять,\nнас найдёт [CS:N]Палкия[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно как можно скорее\nуходить отсюда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú áôäåí èäåòû òóïÿóû,\nîàò îàêäæó [CS:N]Ðàìëéÿ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ëàë íïçîï òëïñåå\nôöïäéóû ïóòýäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to ask [CS:N]Palkia[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How can we get out of here...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And why did he attack us?</t>
+  </si>
+  <si>
+    <t>635, 639, 643</t>
+  </si>
+  <si>
+    <t>649, 653, 657</t>
+  </si>
+  <si>
+    <t>663, 667, 671</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нужно расспросить [CS:N]Палкию[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как нам отсюда выбраться?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И почему он на нас напал?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îôçîï ñàòòðñïòéóû [CS:N]Ðàìëéý[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë îàí ïóòýäà âúáñàóûòÿ?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ðïœåíô ïî îà îàò îàðàì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s hurry, [hero].</t>
+  </si>
+  <si>
+    <t>812, 816, 820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поспешим, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòðåšéí, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We came a long way in here…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But this place doesn\'t seem\nsafe, either…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s keep moving, [hero].</t>
+  </si>
+  <si>
+    <t>830, 834, 838</t>
+  </si>
+  <si>
+    <t>844, 848, 852</t>
+  </si>
+  <si>
+    <t>859, 863, 867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже далеко забрели...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но и это место\nнебезопасно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Идём дальше, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå äàìåëï èàáñåìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï é üóï íåòóï\nîåáåèïðàòîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éäæí äàìûšå, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Cresselia[CR] will guide us to the\n[CS:P]Dark Crater[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Off to the [CS:P]Dark Crater[CR] to face\n[CS:N]Darkrai[CR]!</t>
+  </si>
+  <si>
+    <t>1078, 1082, 1086</t>
+  </si>
+  <si>
+    <t>1093, 1097, 1101</t>
+  </si>
+  <si>
+    <t>1107, 1111, 1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Кресселия[CR] приведёт нас к\n[CS:P]Тёмному Кратеру[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ëñåòòåìéÿ[CR] ðñéâåäæó îàò ë\n[CS:P]Óæíîïíô Ëñàóåñô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы отправимся в [CS:P]Тёмный\nКратер[CR] и сразимся с [CS:N]Даркраем[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïóðñàâéíòÿ â [CS:P]Óæíîúê\nËñàóåñ[CR] é òñàèéíòÿ ò [CS:N]Äàñëñàåí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to stop [CS:N]Darkrai[CR]\'s plot\nthis time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s hang tough, [hero]!</t>
+  </si>
+  <si>
+    <t>1032, 1036, 1040</t>
+  </si>
+  <si>
+    <t>1046, 1050, 1054</t>
+  </si>
+  <si>
+    <t>1060, 1064, 1068</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз мы остановим\n[CS:N]Даркрая[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè íú ïòóàîïâéí\n[CS:N]Äàñëñàÿ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re in really deep now…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder if [CS:N]Darkrai[CR] will be\nwaiting for us…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We don\'t have any choice.\nWe have to keep going.</t>
+  </si>
+  <si>
+    <t>961, 965, 969</t>
+  </si>
+  <si>
+    <t>975, 979, 983</t>
+  </si>
+  <si>
+    <t>990, 994, 998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже очень далеко зашли...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, ждёт ли нас\n[CS:N]Даркрай[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас нет иного выхода.\nНужно идти дальше.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå ïœåîû äàìåëï èàšìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, çäæó ìé îàò\n[CS:N]Äàñëñàê[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò îåó éîïãï âúöïäà.\nÎôçîï éäóé äàìûšå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This isn\'t easy at all, but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to see this through.</t>
+  </si>
+  <si>
+    <t>928, 932, 936</t>
+  </si>
+  <si>
+    <t>943, 947, 951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это совсем непросто, но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы доведём это до конца.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï òïâòåí îåðñïòóï, îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú äïâåäæí üóï äï ëïîøà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we don\'t stop [CS:N]Darkrai[CR] soon…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He\'ll smother the world\nin darkness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go, [hero]![K] We have\nto stop [CS:N]Darkrai[CR]!</t>
+  </si>
+  <si>
+    <t>882, 886, 890</t>
+  </si>
+  <si>
+    <t>896, 900, 904</t>
+  </si>
+  <si>
+    <t>910, 914, 918</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы не остановим\n[CS:N]Даркрая[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он погрузит весь мир во\nтьму.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вперёд, [hero]![K]\nМы должны остановить [CS:N]Даркрая[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú îå ïòóàîïâéí\n[CS:N]Äàñëñàÿ[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî ðïãñôèéó âåòû íéñ âï\nóûíô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âðåñæä, [hero]![K]\nÍú äïìçîú ïòóàîïâéóû [CS:N]Äàñëñàÿ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While our team is awaiting\nrescue, we can still go on a dungeon\nexploration from here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By the way! Did you send our\n[CS:E]SOS Mail[CR] yet, [hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you don\'t send an [CS:E]SOS Mail[CR],\nno one will go rescue our defeated team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To send an [CS:E]SOS Mail[CR], open the\nmenu and select Friend Rescue…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Next, select Get Help to send\nour [CS:E]SOS Mail[CR].</t>
+  </si>
+  <si>
+    <t>30, 34, 38</t>
+  </si>
+  <si>
+    <t>44, 48, 52</t>
+  </si>
+  <si>
+    <t>58, 62, 66</t>
+  </si>
+  <si>
+    <t>72, 76, 80</t>
+  </si>
+  <si>
+    <t>86, 90, 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока наша группа ожидает\nспасателей, мы сможем пойти исследовать\nподземелье.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кстати! Мы ещё не отправили\n[CS:E]SOS-Письмо[CR], [hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы не отправим\n[CS:E]SOS-Письмо[CR], то нашу команду никто не\nсможет спасти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чтобы отправить [CS:E]SOS-Письмо[CR],\nоткрой меню и выбери Спасение Друга...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Далее, выбери Позвать\nПомощь, чтобы отправить [CS:E]SOS-Письмо[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëà îàšà ãñôððà ïçéäàåó\nòðàòàóåìåê, íú òíïçåí ðïêóé éòòìåäïâàóû\nðïäèåíåìûå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëòóàóé! Íú åþæ îå ïóðñàâéìé\n[CS:E]SOS-Ðéòûíï[CR], [hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú îå ïóðñàâéí\n[CS:E]SOS-Ðéòûíï[CR], óï îàšô ëïíàîäô îéëóï îå\nòíïçåó òðàòóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóïáú ïóðñàâéóû [CS:E]SOS-Ðéòûíï[CR],\nïóëñïê íåîý é âúáåñé Òðàòåîéå Äñôãà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàìåå, âúáåñé Ðïèâàóû\nÐïíïþû, œóïáú ïóðñàâéóû [CS:E]SOS-Ðéòûíï[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to talk to [CS:N]Pelipper[CR] to\ngo on a rescue mission, [hero].</t>
+  </si>
+  <si>
+    <t>11, 15, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], чтобы начать\nспасение, нам нужно поговорить с\n[CS:N]Пелиппером[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], œóïáú îàœàóû\nòðàòåîéå, îàí îôçîï ðïãïâïñéóû ò\n[CS:N]Ðåìéððåñïí[CR].</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +3022,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2273,8 +3053,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2379,11 +3171,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2503,6 +3304,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4906,10 +5722,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5823,6 +6639,1124 @@
       </c>
       <c r="F56" s="30" t="s">
         <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="34"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>725</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="34"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>727</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>732</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>733</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="34"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>749</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="34"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>750</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="34"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="34"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>752</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="34"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>745</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="34"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>771</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="27"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="34"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="27"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="34"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>785</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="27"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="43"/>
+      <c r="C74" s="1">
+        <v>1428</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="C75" s="1">
+        <v>1432</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>792</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="34"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="C77" s="1">
+        <v>1456</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
+        <v>795</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1467</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>796</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="45"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19">
+        <v>1470</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="28"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="28"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>810</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="34"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="27"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="34"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="34"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="34"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="27"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="27"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="24" t="s">
+        <v>835</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="34"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>838</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="34"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="E90" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="27"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="34"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>854</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="27"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="34"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>861</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>866</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="27"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="34"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>858</v>
+      </c>
+      <c r="E96" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="27"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="34"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="E98" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="27"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>875</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="34"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>882</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>888</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="34"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="E101" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="27"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="27"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="34"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>898</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>904</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="34"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>905</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="27"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>900</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="34"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>916</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="34"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>917</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="27"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>920</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="34"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>927</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="34"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>916</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="27"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>923</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="F112" s="30" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="34"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="34"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>930</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="27"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>931</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="34"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>941</v>
+      </c>
+      <c r="E116" s="29" t="s">
+        <v>945</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="27"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>942</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="F117" s="30" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="34"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>949</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="34"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="27"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>957</v>
+      </c>
+      <c r="F120" s="30" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="34"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="34"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>962</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>972</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="34"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>973</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="34"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="27"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="F125" s="30" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="27"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>
